--- a/H0BR4/Released/BOM/H0BR41.xlsx
+++ b/H0BR4/Released/BOM/H0BR41.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Zaeiter\Documents\H0BR4x-Hardware\H0BR41\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H0BR4x-Hardware\H0BR4\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB2CB1-8ACB-4F72-8DD1-8975A345D1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42CD9CA-72B2-470D-8C04-407B56622CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H21R00" sheetId="1" r:id="rId1"/>
+    <sheet name="H0BR4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -94,18 +94,9 @@
     <t>JP1</t>
   </si>
   <si>
-    <t>PCB Header, Unshrouded, Thru 02 Straight Header, .101, AMPMODU Mod II Series</t>
-  </si>
-  <si>
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>87227-1</t>
-  </si>
-  <si>
-    <t>https://octopart.com/87227-1-te+connectivity-39512052?r=sp</t>
-  </si>
-  <si>
     <t>Conn Unshrouded Header HDR 3 POS 2.54mm Solder ST Top Entry Thru-Hole Carton</t>
   </si>
   <si>
@@ -298,7 +289,16 @@
     <t>https://octopart.com/lsm303agrtr-stmicroelectronics-59386630?r=sp</t>
   </si>
   <si>
-    <t xml:space="preserve">IMU and eCompass (H0BR41) </t>
+    <t xml:space="preserve">IMU and eCompass (H0BR4) </t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings Unshrouded 1 POS T/H</t>
+  </si>
+  <si>
+    <t>5-146280-1</t>
+  </si>
+  <si>
+    <t>https://octopart.com/5-146280-1-te+connectivity+%2F+amp-40259676?r=sp</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +317,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,21 +328,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,7 +355,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -376,7 +376,7 @@
     <font>
       <b/>
       <sz val="36"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -549,6 +549,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -570,11 +575,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -953,21 +953,21 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="70.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="45.6" x14ac:dyDescent="0.75">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -988,7 +988,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -998,46 +998,46 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="23">
         <v>44864</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1059,19 +1059,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F9" s="17">
         <v>1</v>
@@ -1082,16 +1082,16 @@
         <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -1139,59 +1139,59 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F13" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="17">
         <v>8</v>
@@ -1199,19 +1199,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>18</v>
@@ -1239,19 +1239,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="17">
         <v>1</v>
@@ -1259,19 +1259,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="D19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="17">
         <v>1</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="17">
         <v>1</v>
@@ -1299,59 +1299,59 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F21" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="F22" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="F23" s="17">
         <v>1</v>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="17">
         <v>1</v>
@@ -1385,20 +1385,19 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E13" r:id="rId12" display="https://octopart.com/crcw060310k0jneb-vishay-46603269" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://octopart.com/crcw060310k0jneb-vishay-46603269" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>